--- a/ProductCentralProject-Stg-Regression/testdata.xlsx
+++ b/ProductCentralProject-Stg-Regression/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0F5A32-3646-4CA5-9796-4750588E4C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63ABEA1-2FD4-48B5-BA36-CBCFA8AC6E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="253">
   <si>
     <t>homepageURL</t>
   </si>
@@ -770,19 +770,13 @@
     <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/left-navigation-automation.html</t>
   </si>
   <si>
-    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/dam/productcentral/en_us/products/check-in/myproducts/myproducts-about-page-media</t>
-  </si>
-  <si>
     <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/my-products/notproduct.html</t>
   </si>
   <si>
     <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/automation/my-products/enterprise-control.html</t>
   </si>
   <si>
-    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
-  </si>
-  <si>
-    <t>https://productcentral-stg.products.pwc.com/content/pc/us/en/automation/my-products/transparency-hub.html</t>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/dam/productcentral/en_us/products/about-myproducts/myproducts/youtube-video</t>
   </si>
 </sst>
 </file>
@@ -2046,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,7 +2569,7 @@
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -2605,22 +2599,12 @@
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2683,8 +2667,6 @@
     <hyperlink ref="B81" r:id="rId56" xr:uid="{D266923E-226E-4612-850D-055CA88BD948}"/>
     <hyperlink ref="B82" r:id="rId57" xr:uid="{0636F7E5-6078-4262-9CFC-D8D2D2DA3F45}"/>
     <hyperlink ref="B77" r:id="rId58" xr:uid="{AA172DB6-8438-46E9-9A5F-2A0903DF0F5C}"/>
-    <hyperlink ref="B90" r:id="rId59" xr:uid="{BEE9E7EA-CEED-43E5-92A0-99419C234E29}"/>
-    <hyperlink ref="B86" r:id="rId60" xr:uid="{6506C381-ACD1-4FEA-A724-B0683C48C01A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProductCentralProject-Stg-Regression/testdata.xlsx
+++ b/ProductCentralProject-Stg-Regression/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63ABEA1-2FD4-48B5-BA36-CBCFA8AC6E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C8A385-1357-477E-A645-60B2C1F93C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="255">
   <si>
     <t>homepageURL</t>
   </si>
@@ -777,6 +777,12 @@
   </si>
   <si>
     <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/dam/productcentral/en_us/products/about-myproducts/myproducts/youtube-video</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/child-check-in.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-stg.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/top-level-automation.html</t>
   </si>
 </sst>
 </file>
@@ -2040,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,6 +2611,16 @@
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
